--- a/EmployeeResumeRead/merged_excels.xlsx
+++ b/EmployeeResumeRead/merged_excels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,96 +468,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ravikiranrr</t>
+          <t>rjtrivedi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ravikiran Rathod</t>
+          <t>RAJAT TRIVEDI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA (Master of Econom</t>
+          <t>Mob. No: 8851456225</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8983735080</t>
+          <t>8851456225</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ravikiranrr443@gmail.com</t>
+          <t>rjtrivedi0@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RavikiranRathod</t>
+          <t>RajatTrivedi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aniketpraveshjain</t>
+          <t>mohitk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aniket Jain</t>
+          <t>Name: Mohit Kumar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>aniketpraveshjain@gm</t>
+          <t>Email: mohitk9917@gm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9284080320</t>
+          <t>7983748491</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>aniketpraveshjain@gmail.com</t>
+          <t>mohitk9917@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AniketPraveshJain[4y_0m] (1).pdf</t>
+          <t>MohitKumar</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rbhavyasri</t>
+          <t>md.umar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bhavyasri Rompilli</t>
+          <t>CAREER OBJECTIVE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rbhavyasri9@gmail.co</t>
+          <t>MD UMAR KHAYYAM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+9 9121541098</t>
+          <t>+91 7033983252</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>rbhavyasri9@gmail.com</t>
+          <t>md.umar35@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bhavya-resume.pdf</t>
+          <t>MdUmar</t>
         </is>
       </c>
     </row>
@@ -596,216 +596,216 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aniketsg</t>
+          <t>ravikiranrr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sector no -21,scheme</t>
+          <t>Ravikiran Rathod</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11,yamunanager,nigdi</t>
+          <t>MA (Master of Econom</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8237200043</t>
+          <t>8983735080</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aniketsg777@gmail.com</t>
+          <t>ravikiranrr443@gmail.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AniketShamraoGaikwad</t>
+          <t>RavikiranRathod</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aniketpraveshjain</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEEPANK TIWARI</t>
+          <t>Aniket Jain</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Salesforce Developer</t>
+          <t>aniketpraveshjain@gm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8889622055</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>9284080320</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>aniketpraveshjain@gmail.com</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DeepankTiwari</t>
+          <t>AniketPraveshJain[4y_0m] (1).pdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>shivagolla</t>
+          <t>rbhavyasri</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Golla Shiva</t>
+          <t>Bhavyasri Rompilli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Highly seasoned and </t>
+          <t>rbhavyasri9@gmail.co</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7013874066</t>
+          <t>+9 9121541098</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>shivagolla2023@gmail.com</t>
+          <t>rbhavyasri9@gmail.com</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GollaShiva</t>
+          <t>Bhavya-resume.pdf</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>topranivinny</t>
+          <t>Aniketsg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hanisha Bathija</t>
+          <t>Sector no -21,scheme</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mumbai, Maharashtra,</t>
+          <t>11,yamunanager,nigdi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7741818545</t>
+          <t>8237200043</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>topranivinny64@gmail.com</t>
+          <t>Aniketsg777@gmail.com</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HanishaBathija</t>
+          <t>AniketShamraoGaikwad</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>md.umar</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CAREER OBJECTIVE</t>
+          <t>DEEPANK TIWARI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MD UMAR KHAYYAM</t>
+          <t>Salesforce Developer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+91 7033983252</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>md.umar35@gmail.com</t>
-        </is>
-      </c>
+          <t>8889622055</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MdUmar</t>
+          <t>DeepankTiwari</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mohitk</t>
+          <t>shivagolla</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name: Mohit Kumar</t>
+          <t>Golla Shiva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Email: mohitk9917@gm</t>
+          <t xml:space="preserve">Highly seasoned and </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7983748491</t>
+          <t>7013874066</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>mohitk9917@gmail.com</t>
+          <t>shivagolla2023@gmail.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MohitKumar</t>
+          <t>GollaShiva</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rjtrivedi</t>
+          <t>topranivinny</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RAJAT TRIVEDI</t>
+          <t>Hanisha Bathija</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mob. No: 8851456225</t>
+          <t>Mumbai, Maharashtra,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8851456225</t>
+          <t>7741818545</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>rjtrivedi0@gmail.com</t>
+          <t>topranivinny64@gmail.com</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RajatTrivedi</t>
+          <t>HanishaBathija</t>
         </is>
       </c>
     </row>
@@ -868,592 +868,6 @@
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>SachinKumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ravikiranrr</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ravikiran Rathod</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>MA (Master of Econom</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8983735080</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ravikiranrr443@gmail.com</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>RavikiranRathod</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>aniketpraveshjain</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Aniket Jain</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>aniketpraveshjain@gm</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9284080320</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>aniketpraveshjain@gmail.com</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>AniketPraveshJain[4y_0m] (1).pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>rbhavyasri</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Bhavyasri Rompilli</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>rbhavyasri9@gmail.co</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>+9 9121541098</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>rbhavyasri9@gmail.com</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Bhavya-resume.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>hemlatasfdc</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Name:       Hemlata</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Email:       hemlata</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9695727826</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>hemlatasfdc1822@gmail.com</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Hemlata_Saleforce Developer (1).docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Aniketsg</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sector no -21,scheme</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>11,yamunanager,nigdi</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8237200043</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Aniketsg777@gmail.com</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>AniketShamraoGaikwad</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DEEPANK TIWARI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Salesforce Developer</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8889622055</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>DeepankTiwari</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>shivagolla</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Golla Shiva</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Highly seasoned and </t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7013874066</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>shivagolla2023@gmail.com</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>GollaShiva</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>topranivinny</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Hanisha Bathija</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mumbai, Maharashtra,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7741818545</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>topranivinny64@gmail.com</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>HanishaBathija</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>md.umar</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CAREER OBJECTIVE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>MD UMAR KHAYYAM</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>+91 7033983252</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>md.umar35@gmail.com</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>MdUmar</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>mohitk</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Name: Mohit Kumar</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Email: mohitk9917@gm</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7983748491</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>mohitk9917@gmail.com</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>MohitKumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>rjtrivedi</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>RAJAT TRIVEDI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mob. No: 8851456225</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8851456225</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>rjtrivedi0@gmail.com</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>RajatTrivedi</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>rameshkeshari</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Name RAMESH KUMAR KE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>JobRole: SalesforceD</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9616671130</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>rameshkeshari9@gmail.com</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>RAMESHKUMARKESHARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sachinkumar</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Name:SachinKumar</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>EmailId:Sachinkumar8</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>+918765031657</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Sachinkumar888820@gmail.com</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>SachinKumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Jayashree S. Kinkar</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>(cid:211) +91-749840</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>7498408052</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>JayshreeKinkar</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>md.umar</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CAREER OBJECTIVE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MD UMAR KHAYYAM</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>+91 7033983252</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>md.umar35@gmail.com</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>MdUmar</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>mohitk</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Name: Mohit Kumar</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Email: mohitk9917@gm</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>7983748491</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>mohitk9917@gmail.com</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MohitKumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>rameshkeshari</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Name RAMESH KUMAR KE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>JobRole: SalesforceD</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>9616671130</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>rameshkeshari9@gmail.com</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>RAMESHKUMARKESHARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ravikiranrr</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Ravikiran Rathod</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>MA (Master of Econom</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>8983735080</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ravikiranrr443@gmail.com</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>RavikiranRathod</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sachinkumar</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Name:SachinKumar</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>EmailId:Sachinkumar8</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>918765031657</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Sachinkumar888820@gmail.com</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
         <is>
           <t>SachinKumar</t>
         </is>

--- a/EmployeeResumeRead/merged_excels.xlsx
+++ b/EmployeeResumeRead/merged_excels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,96 +468,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rjtrivedi</t>
+          <t>Sachinkumar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RAJAT TRIVEDI</t>
+          <t>Name:SachinKumar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mob. No: 8851456225</t>
+          <t>EmailId:Sachinkumar8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8851456225</t>
+          <t>+918765031657</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>rjtrivedi0@gmail.com</t>
+          <t>Sachinkumar888820@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RajatTrivedi</t>
+          <t>SachinKumar</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mohitk</t>
+          <t>aniketpraveshjain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Name: Mohit Kumar</t>
+          <t>Aniket Jain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Email: mohitk9917@gm</t>
+          <t>aniketpraveshjain@gm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7983748491</t>
+          <t>9284080320</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>mohitk9917@gmail.com</t>
+          <t>aniketpraveshjain@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MohitKumar</t>
+          <t>AniketPraveshJain[4y_0m].pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>md.umar</t>
+          <t>rbhavyasri</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAREER OBJECTIVE</t>
+          <t>Bhavyasri Rompilli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MD UMAR KHAYYAM</t>
+          <t>rbhavyasri9@gmail.co</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+91 7033983252</t>
+          <t>+9 9121541098</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>md.umar35@gmail.com</t>
+          <t>rbhavyasri9@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MdUmar</t>
+          <t>Bhavya-resume.pdf</t>
         </is>
       </c>
     </row>
@@ -577,10 +577,8 @@
           <t>Email:       hemlata</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9695727826</t>
-        </is>
+      <c r="D5" t="n">
+        <v>9695727826</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -590,286 +588,6 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Hemlata_Saleforce Developer (1).docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ravikiranrr</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ravikiran Rathod</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MA (Master of Econom</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8983735080</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ravikiranrr443@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>RavikiranRathod</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>aniketpraveshjain</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aniket Jain</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>aniketpraveshjain@gm</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9284080320</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>aniketpraveshjain@gmail.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AniketPraveshJain[4y_0m] (1).pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>rbhavyasri</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bhavyasri Rompilli</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>rbhavyasri9@gmail.co</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>+9 9121541098</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>rbhavyasri9@gmail.com</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bhavya-resume.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Aniketsg</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sector no -21,scheme</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>11,yamunanager,nigdi</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8237200043</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Aniketsg777@gmail.com</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>AniketShamraoGaikwad</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DEEPANK TIWARI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Salesforce Developer</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8889622055</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>DeepankTiwari</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>shivagolla</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Golla Shiva</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Highly seasoned and </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7013874066</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>shivagolla2023@gmail.com</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>GollaShiva</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>topranivinny</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hanisha Bathija</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mumbai, Maharashtra,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7741818545</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>topranivinny64@gmail.com</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>HanishaBathija</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>rameshkeshari</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Name RAMESH KUMAR KE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>JobRole: SalesforceD</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9616671130</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>rameshkeshari9@gmail.com</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>RAMESHKUMARKESHARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sachinkumar</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Name:SachinKumar</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>EmailId:Sachinkumar8</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>+918765031657</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Sachinkumar888820@gmail.com</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>SachinKumar</t>
         </is>
       </c>
     </row>

--- a/EmployeeResumeRead/merged_excels.xlsx
+++ b/EmployeeResumeRead/merged_excels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,126 +468,6296 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sachinkumar</t>
+          <t>ajaikrishnan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name:SachinKumar</t>
+          <t xml:space="preserve">OBJECTIVE STATEMENT </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EmailId:Sachinkumar8</t>
+          <t>Excel as a Senior We</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+918765031657</t>
+          <t>9345211363</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sachinkumar888820@gmail.com</t>
+          <t>ajaikrishnan13@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SachinKumar</t>
+          <t>AjaiKrishnan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aniketpraveshjain</t>
+          <t>anand</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aniket Jain</t>
+          <t>ANAND R</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>aniketpraveshjain@gm</t>
+          <t>UI DEVELOPER</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9284080320</t>
+          <t>+91 9884254608</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>aniketpraveshjain@gmail.com</t>
+          <t>anand0447@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AniketPraveshJain[4y_0m].pdf</t>
+          <t>Anand</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rbhavyasri</t>
+          <t>arangasamy.arulselvi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bhavyasri Rompilli</t>
+          <t>ARULSELVI. A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rbhavyasri9@gmail.co</t>
+          <t xml:space="preserve">+91 9788781303      </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+9 9121541098</t>
+          <t>+91 9788781303</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>rbhavyasri9@gmail.com</t>
+          <t>arangasamy.arulselvi@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bhavya-resume.pdf</t>
+          <t>Arulselvi</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>hemlatasfdc</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Name:       Hemlata</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Email:       hemlata</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>9695727826</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>hemlatasfdc1822@gmail.com</t>
-        </is>
-      </c>
+          <t>BALASUBRAMANI P</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hemlata_Saleforce Developer (1).docx</t>
+          <t>Balasubramani</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bavithrarajagopal</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+91 9677627791</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B A V I T H R A R</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+91 9677627791</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>bavithrarajagopal@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BavithraRajagopal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bhuvanaapps</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, Mariamman Kovil S</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BHUVANESWARI N</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9940839951</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>bhuvanaapps1409@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BhuvaneswariNagarajan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>chanderbalu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>chanderbalu109@gmail</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9677184672</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>chanderbalu109@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ChanderBalasubramanian</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>praveen.pec</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Praveen Kumar CH    </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Software Developer, </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+91 9600179722</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>praveen.pec89@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chevurupraveenkumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>chithambaramd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CHITHAMBARAM. D</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         E-Mail: chi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>chithambaramd85@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ChithambaramD</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dhanasheelan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dhanasheelan Shanmug</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>React.js | JavaScrip</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9566612764</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>dhanasheelan1994@gmail.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dhanasheelans</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>elavarasan.selvaraj</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Elavarasan S</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chennai, Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9940837307</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>elavarasan.selvaraj14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ElavarasanS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>epsinov</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EPSI VICTORIYA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angular Developer &amp; </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>epsinov23@gmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EpsiVictoriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ganapathibabu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S.D. Ganesh Babu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E-Mail: - ganapathib</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ganapathibabu@gmail.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>GaneshBabuSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>indusathiya</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Indumathi M</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Immediate Joiner. Ha</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9789070160</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>indusathiya2015@gmail.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>IndumathiM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>chenchaiah</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	J CHENCHAIH</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9491239138</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>chenchaiah16@gmail.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>JCHENCHAIAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>jagadeeswari.ece.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jagadeeswari s</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mobile No: +91 93454</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>+91 9345481572</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>jagadeeswari.ece.27@gmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Jegadeeswari</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bonsaikarthick</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KARTHICK S</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bonsaikarthick1991@g</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9790475794</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>bonsaikarthick1991@gmail.com</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>KARTHICKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>karthihavocless</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KARTHIKEYAN G</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9094220219</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>karthihavocless28@gmail.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>KarthikeyanG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>karthikpjk</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KARTHIKEYANJ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SeniorFrontendDevelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9578038358</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>karthikpjk@gmail.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>KARTHIKEYAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>manishj</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(+91) 9943420922</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9943420922</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>manishj1597@gmail.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Manikandan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>a.najeerudeen</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohamed Najeerudeen </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(Immediate Joiner) +</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8072860050</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>a.najeerudeen@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MohamedNajeerudeenA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mohannbtechit</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MOHAN RAJ | FRONT-EN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chennai, India | +91</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8056254846</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>mohannbtechit12@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MOHANRAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mmugilan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MUGILAN.M | Phone: +</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MUGILAN.M</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>+91 9500828236</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>mmugilan09@gmail.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MugilanM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mugilanbarasan</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mugil A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8667486072</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>mugilanbarasan@gmail.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mugil</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nandhinics</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nandhini Mani</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chennai, India</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>+91 9843662916</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>nandhinics29@gmail.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NandhiniMani</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>inijanthan</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NIJANTHAN I</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9790814513</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>inijanthan@gmail.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NijanthanI</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nikks</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nitish Kumar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SeniorFullStackDevel</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>+919790850233</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>nikks3768@gmail.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NITISHKUMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>paul.arockiyam</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Palraj Arockiaraj</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>paul.arockiyam@gmail</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9840823280</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>paul.arockiyam@gmail.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PalrajArockiaraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pandiyarajan.tcps</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPER</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PANDIYARAJAN.S      </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>+91 6369773659</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pandiyarajan.tcps@gmail.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PANDIYARAJANS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>prema</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7639425279</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>prema203@gmail.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Piraimathi</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>spradeebaselvaraj</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>S.PRADEEBA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>S.PRADEEBA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7708752621</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>spradeebaselvaraj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>pradeeba</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mcapraveenkumarp</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P. PRAVEEN KUMAR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+91 7845627408 </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>+91 7845627408</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>mcapraveenkumarp@gmail.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PraveenKumarP</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ragulkrishnaraj</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ragul Krishnaraj Mob</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UI UX Developer &amp; De</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9655334489</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ragulkrishnaraj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>RagulKrishnaraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ramlakshmibe</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Senior Web Developer</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Senior Web Developer</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9884563003</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ramlakshmibe@gmail.comAddress</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ramalakshmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>devr</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DEVENDIRAN R</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No.5/65, 2nd floor, </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9789896533</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>devr2086@gmail.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>RDevendiran</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sajin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SAJIN PRABHU Y</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Email Id: sajin43@gm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9944682919</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>sajin43@gmail.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SajinPrabhuY</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ahino.s</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SAM AHINO S</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>+91 6383449195</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ahino.s1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SamAhinoS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>santhoshsac</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Santhosh Kumar C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7402239129</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>santhoshsac1994@gmail.com</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Santhoshkumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>tsanthoshkumar</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SANTHOSH KUMAR T</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>+91 7418882627</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>tsanthoshkumar06@gmail.com</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SanthoshKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>saravana</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Saravanan Balasubram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>saravana282008@gmail</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9840490629</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>saravana282008@gmail.com</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Saravanan</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>csathishkumar</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Name: Sathish Kumar </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Email: csathishkumar</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8220642057</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>csathishkumar217@gmail.com</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SathishKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shaktishkumar</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Shaktish kumar M R</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>91766 83582</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>shaktishkumar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ShaktishkumarMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>shalu.ks</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SHALINI K S</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SENIOR PROGRAMMER</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7358756920</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>shalu05.ks@gmail.com</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ShaliniKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sengupta.shubodeep</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CONTACT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SHUBODEEP SENGUPTA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8949969210</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>sengupta.shubodeep@gmail.com</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Shubodeepsengupta</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>hasyms</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Plotno580,</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Shunmuga Sankar</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8807640056</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>hasyms21@gmail.com</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ShunmugaSankarM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>shyamala.k.techie</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SHYAMALA K</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Phone: +91-93619 541</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>shyamala.k.techie@gmail.com</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ShyamalaK</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>hellosimbu</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SILAMBARASAN K</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>hellosimbu2023@gmail</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>+91 9360277878</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>hellosimbu2023@gmail.com</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>silambarsan</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>arivu</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SIVARAMAKRISHNAN D  </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    arivu1243@gmail.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>+91 9488672109</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>arivu1243@gmail.com</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SivaramakrishnanD</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>keerthisuryakumar</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>S.Keerthiha</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10-5-15 /A.9 Rathina</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9597248302</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>keerthisuryakumar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Skeerthiha</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mailforsoundar</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>S.SOUNDAR RAJAN Emai</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Contact No: 99403623</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9940362337</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>mailforsoundar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SoundarRajan</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sujith.spk</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sujith SoundaraPandi</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Handphone : +91 9363</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>+91 9363474903</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>sujith.spk46@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SujithSoundaraPandianK</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>surendrann</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SURENDRAN N</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Senior UI Frontend D</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9965470854</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>surendrann85@gmail.com</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SURENDRANNATARAJAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vasanth</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VASANTHAN RAJI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Email: vasanth100790</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>+91 7871797603</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>vasanth100790@gmail.com</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>VasanthanRaji</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>velmuruganc</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Professional Summary</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Skilled and motivate</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>+91 9360322734</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>velmuruganc6@gmail.com</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>VelmuruganC</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>velmurugantelecom</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Velmurugan S Mail: v</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6382974326</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>velmurugantelecom@gmail.com</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>VelmuruganS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>divakarvenati</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Venati Divakar</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Contact: +91 9182848</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>+91 9182848382</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>divakarvenati@gmail.com</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>VenatiDivakar</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vijayvs.ns</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Vijay.V.S.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>www.vijaythedevelope</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>+919840660221</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>vijayvs.ns@gmail.com</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>VijayVS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vishnupriyak</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Vishnupriya</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>vishnupriya2k14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>VishnupriyaR</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>yokeshmani</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>YOKESH.M</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Phone: +91-958589686</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9585896868</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>yokeshmani11@gmail.com</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Yokesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>abhilash.mishra.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Abhilash Mishra</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ph - 7008099618 | ab</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7008099618</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>abhilash.mishra.10@gmail.com</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>AbhilashMishra</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>abhinavsharma</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abhinav1611sharma@gm</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Abhinav Sharma</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9742398538</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>abhinav1611sharma@gmail.com</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AbhinavSharma</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>abhiramagupta</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>UI Developer(5.5 Yea</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>abhiramagupta7@gmail</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7532963382</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>abhiramagupta7@gmail.com</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ABHIRAMASGUPTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>akashdubey</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Akash Dubey Hemant N</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Bangalore (560037)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6263951729</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>akashdubey05071994@gmail.com</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>AkashDubey</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>akhilchreddy</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>REACT JS DEVELOPER</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Name: Akhil Reddy</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8088684098</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>akhilchreddy2545@gmail.com</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>AkhilReddy</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>AMAN.SKNCOE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AMAN KUMAR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>WEB DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7768987471</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>AMAN.SKNCOE@OUTLOOK.COM</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>AmanKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>amar.mehta</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AMARJEET KUMAR</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">React JS | NextJS | </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9686639799</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>amar.mehta020292@gmail.com</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>AmarjeetKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>amiyaranjanpadhy</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Cuttack, Odisha, Ind</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AMIYA RANJAN</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9861380082</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>amiyaranjanpadhy11@gmail.com</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>AmiyaRanjanPadhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>amritakumari</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Amrita Kumari</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>amritakumari08@yahoo</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9108650875</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>amritakumari08@yahoo.in</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>AmritaKumari</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>anandakb</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ANANDA K B</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bangalore, Karnataka</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9591945112</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>anandakb06@gmail.com</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ANANDAKB</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>t.anandhan</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>T. ANANDHAN</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mobile: +91- 7353234</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7353234923</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>t.anandhan5@gmail.com</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>AnandhanThanappan</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ananthapadmanabhan</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ananthapadmanabhan J</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>(Senior Software Eng</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>+91 8129523338</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ananthapadmanabhan009@gmail.com</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>AnanthapadmanabhanJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>bhartianubha</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Bengaluru,India</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Anubha Bharti</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>bhartianubha9@gmail.com</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>AnubhaBharti</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>anupvarma</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>R E S U M E</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Anup Subhash Varma E</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>anupvarma92@gmail.com</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ANUPVARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>anuk</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Anuradha Karadi</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Mobile   : +91-70223</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7022306232</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>anuk00959@gmail.com</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Anuradhakaradi</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>appu.ainapur</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Name: Appu P Ainapur</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Contact No: 89510754</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8951075476</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>appu.ainapur406@gmail.com</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>AppuAinapur</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>arteeegupta</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Artee Gupta</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>arteeegupta31@gmail.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9773812141</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>arteeegupta31@gmail.com</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ArteeGupta</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>avinashkslet</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Avinash BB</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Front end developer</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>9206384038</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>avinashkslet@gmail.com</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>AvinashBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>awadhesh</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AWADHESH PRASAD</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>+91 8983731403|awadh</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>+91 8983731403</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>awadhesh2090@gmail.com</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AwadheshPrasad</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>katipallyb</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BALREDDY.K</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8019451532</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>katipallyb@gmail.com</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>BALREDDYK</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>shreebhagya</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BHAGYASHREE G</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mobile: +91 97438143</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>+91 9743814322</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>shreebhagya1411@gmail.com</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bhagyashree</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>manyambharath</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BHARATH M</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E-Mail: manyambharat</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6304815875</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>manyambharath997@gmail.com</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>BHARATHM</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>bhargv</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B V BHARGAVA V</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Tumkur, 572102 ● 843</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8431393689</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>bhargv2488@gmail.com</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>BhargavaV</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>lakshmibhuvana</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7502857733</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>lakshmibhuvana1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BhuvanaSriMP</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>priyabishnupanda</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BISHNUPRIYA PANDA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9743495061</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>priyabishnupanda@gmail.com</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>BishnupriyaPanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>brijeshk</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CURRICULUM VITAE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BRIJESH +91 81787580</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>+91 8178758090</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>brijeshk1510@gmail.com</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Brijesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sateeshnew</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sateesh B           </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ph:7207782201       </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7207782201</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sateeshnew2024@gmail.com</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>BSateesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>er.chaitanya</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CHAITANYA THAKUR</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>er.chaitanya1204@gma</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>+91 6360271028</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>er.chaitanya1204@gmail.com</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ChaitanyaThakur</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>chetanprasadgaya</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Contact Chetan Prasa</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>8971502673 (Mobile)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8971502673</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>chetanprasadgaya@gmail.com</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ChetanPrasad</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>chetan.vastradanju</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Chetan Vastrad</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Front End Developer</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7218798712</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>chetan.vastradanju4@gmail.com</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ChetanVirapakshappaVastrad</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Chimmilisravika</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHIMMILI SRAVIKA    </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Chimmilisravika94@gm</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>+91 9344460245</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Chimmilisravika94@gmail.com</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ChimmiliSravika</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>chinmayeemahapatra</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CHINMAYEE MAHAPATRA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Experience: 5+ years</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8496931651</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>chinmayeemahapatra202@gmail.com</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ChinmayeeMahapatra</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>deepakinteract</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DEEPAK DESHPANDE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Angular Front-End De</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>+91 8867124900</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>deepak2interact@gmail.com</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>DeepakDeshpande</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>devait</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.DEVARAJU          </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Software Engineer.  </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9177542183</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>devait30@gmail.com</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>DevarajuB</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>dhanaladeviprasad</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Dhanala Deviprasad</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Lead Consultant</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>+91 8125698355</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>dhanaladeviprasad@gmail.com</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>DhanalaDeviprasad</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>dhkushwaha</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DHANANJAY KUSHWAHA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Lead Software Engine</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>+91 7204372909</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>dhkushwaha25@gmail.com</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>DHANANJAYKUSHWAHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>dineshdazzler</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DINESH S</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>+919500525457</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>dineshdazzler93@gmail.com</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Dinesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>elurimaheswarrao</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Eluri Maheswarrao el</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Developer 7780505999</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7780505999</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>elurimaheswarrao@gmail.com</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>EluriMaheswarRao</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>gautam.kumar.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Gautam Kumar Singh</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Senior Software Engi</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>8987477225</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>gautam.kumar.170693@gmail.com</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>GautamKumarSingh</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>girikumar</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>E-Mail: girikumar552</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>+91 8904673743</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>girikumar5529@gmail.com</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>GGiri</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>GOPITOTAKURA</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GOPAIAH TOTAKURA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>7 Y SENIOR UI DEVELO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8951827383</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>GOPITOTAKURA@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>GopaiahTotakura</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>gopinadh.swarna</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GOPINADH </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>UI/Front-end Develop</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8885922236</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>gopinadh.swarna249@gmail.com</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Gopi</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>gurupratap</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>G Guru Pratap</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>UI DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6366299116</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>gurupratap022@gmail.com</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>gurupratap</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>harishkumarbs</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>HARISH KUMAR B S</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Discipline: Software</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>9008289361</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>harishkumarbs145@gmail.com</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>HARISHKUMARBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>haris.karat</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>LinkedIn Profile</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>www.linkedin.com/in/</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>haris.karat@gmail.com</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>HarisKarat</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>jhemavathi</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Hemavathi</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Multi-faceted profes</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>6301319569</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>jhemavathi24@gmail.com</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Hemavathi</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Subhankar.ishan</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ISHAN SUBHANKAR</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Lead Software Engine</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Subhankar.ishan@gmail.com</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>IshanSubhankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>itishree.iti</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Itishree Mahapatra</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>8050379792</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>itishree.iti1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ITISHREEMAHAPATRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>jyotipatelvi</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               		   </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>____________________</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>8949042494</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>jyotipatelvi@gmail.com</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>JyotiPatel</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>karthik.hp</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>KARTHIK H P</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>9742909563</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>karthik.hp39@gmail.comPhone</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>karthik</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>kuppireddydeepika</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          K. Deepika</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	E-Mail:  kuppireddy</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>+917799700488</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>kuppireddydeepika@gmail.com</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>KDeepikaImmediateJoiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>kollasureshbabu</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SURESH BABU KOLLA   </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lead UI Developer   </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>+91 7204905731</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>kollasureshbabu@gmail.com</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>KollaSureshBabu</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>sy</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mrs. Komal Yadav</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Mob No: 8999852519</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>8999852519</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>sy19062020@gmail.com</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>KomalY</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>kotatejeshu</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Kota Tejesh Kumar</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>+91 9886182684</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>kotatejeshu@gmail.com</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>KotaTejeshKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>rajakrishgo</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Curriculum Vitae:</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>9986688118</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>rajakrishgo@gmail.com</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>KRISHNAMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>kritigupta</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Kriti Gupta</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Software Engineer – </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>7639791051</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>kritigupta234@gmail.com</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>KritiGupta</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>kumarireena</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Kumari Reena</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>kumarireena2390@gmai</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>9583198722</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>kumarireena2390@gmail.com</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>KUMARIREENA</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>lakshmipathi</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>LAKSHMI PATHI BHIMAV</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Mobile No: | +91 938</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>+91 9381068996</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>lakshmipathi2319@gmail.com</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LAKSHMIPATHIBHIMAVARAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>mailssagari</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>LALITHASAGARI Techni</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>KUPPUSAMY</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>9538663035</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>mails4sagari@gmail.com</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LalithasagariK</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>lavanyap</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Lavanya P</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Phone no: +91 - 9880</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>9880800721</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>lavanyap069@gmail.com</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Lavanya</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>rajeshmagento</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RAJESH N (8.5+ Years</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Senior Software Engi</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>7708872101</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>rajeshmagento5@gmail.com</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>MagentoExpertCertifiedDeveloper</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>mmahee</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MAHESH M</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nationality: Indian </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>9035228199</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>mmahee25@gmail.com</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>MaheshM</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>maheshk</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CURRICULUM VITAE</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	                   </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>9966485846</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>maheshk891402@gmail.com</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>mahesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>manasi_</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>PHONE (+91) 82966818</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>MANASI</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8296681809</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>manasi_0433@yahoo.in</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ManasiRoy</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>manjeetmangatsingh</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MANJEETSINGH Contact</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DOB:Jan-04-1994 E- m</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>9368445377</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>manjeetmangatsingh@gmail.com</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ManjeetSingh</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>mmanjuladhavaleshwar</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ManjulaDhavaleshwar</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>B.EGraduate</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>+918088458323</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>mmanjuladhavaleshwar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ManjulaDhavaleshwar</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>manjunathdeepak</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MANJUNATH C</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> #658/1, 1st cross,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>9738701558</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>manjunathdeepak89@gmail.com</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>MANJUNATHC</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>sharma.manoj</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Manoj Sharma</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>| +91 8884051102 | s</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>+91 8884051102</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>sharma.manoj9589@gmail.com</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ManojSharma</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>mastanvalishaik.s</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	MASTHANVALI  SHAIK</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>mastanvalishaik.28s@</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>8095607203</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>mastanvalishaik.28s@gmail.com</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Masthanvalishaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>meghayadav.d</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Email: meghayadav.d@</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Mob: +91 9738128506</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>+91 9738128506</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>meghayadav.d@gmail.com</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>MeghaD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>mustaku</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mustak Shiraguppi</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Phone: +91-866088551</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8660885516</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>mustak04u@gmail.com</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>MUSTAKSHIRAGUPPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B.nalinagowda</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>NALINA S</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>+91 8748816668</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>B1.nalinagowda@gmail.com</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NalinaS</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>namratasoni.cse</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Namrata Soni E-MAIL:</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>namratasoni.cse@gmai</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>9973977845</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>namratasoni.cse@gmail.com</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Namratasoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>nandhini.gr</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>NANDHINI Front End D</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>E9342552515 nandhin</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>9342552515</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>nandhini.gr1718@gmail.com</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Nandhini</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>nareshwtech</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>NARESH</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>React JS Developer</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>8309803038</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>nareshwtech@gmail.com</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NARESHT</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>nishanth.t</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>NISHANTH T</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Frontend Developer</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>nishanth.t40@gmail.com</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NISHANTHT</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>nishant.k.podhar</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nishant Kumar</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>UI DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>+91 9431917986</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>nishant.k.podhar@gmail.com</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NishantKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>aj</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Nithin Raj</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ABOUT ME</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>9080564596</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>aj1592@gmail.com</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NithinRaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>garain.pallabi</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Pallabi Garain</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.linkedin</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>8074363300</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>garain.pallabi@gmail.com</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>PallabiGarain</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>pavankumarkori</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>PAVANKUMAR KORI</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salesforce Commerce </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>8892516330</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>pavankumarkori1@gmail.com</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>PavankumarKori</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>pavithrapriyandr</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		PAVITHRA PRIYAN D </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		                  </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>+91 9380108768</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>pavithrapriyandr@gmail.com</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>PavithrapriyanDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>bhowmik.payel</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Payel Bhowmik</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Bengaluru,India</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>bhowmik.payel95@gmail.com</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>PayelBhowmik</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>phani</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Phanikumar Ranga	 </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	UI Developer	Email:</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6303420162</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>phani@vibrant-info.com</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>PHANIKUMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>poojapalaparthi</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Pooja Palaparthi		 </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>+91 8500202315</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>poojapalaparthi2016@gmail.com</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>PoojaPalaparthi</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>prabhatjena</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>PrabhatKumarJena</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>prabhatjena142@gmail</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>7795172092</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>prabhatjena142@gmail.com</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>prabhatkumarjena</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>pradeepa.dbe</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Pradeepa D</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Phone: 9741972669</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>9741972669</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>pradeepa.dbe@gmail.com</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>PradeepaD</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>pksitha</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>PROFILE SUMMARY</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t> Developed Creative</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>9739072791</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>pksitha1989@gmail.com</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>PrasantaKumarSitha</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>praveenkumar.parameshwaran</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>PRAVEEN KUMAR P</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Front End Developer</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>+91 8217892789</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>praveenkumar.parameshwaran@gmail.com</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>PraveenkumarP</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>priyanka.kkjain</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>priyanka.kkjain@gmai</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Priyanka Jain</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>7869728203</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>priyanka.kkjain@gmail.com</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>PriyankaJain</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>rsinha</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Rahul Sinha</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SoftwareDeveloper</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>8572937795</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>rsinha90123@gmail.com</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>RahulSinha</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>web.rajuk</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raju. K			 			 			  </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>9398522763</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>web3.rajuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>RajuK</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>pulakunta.rakesh</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>RAKESH PULAKUNTA</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Designation: Tech Le</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>+91 7624940364</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>pulakunta.rakesh77@gmail.com</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>RakeshPulakunta</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>missmerry.singh</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Rani Kumari</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Frontend Developer</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>9971471091</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>missmerry.singh@gmail.com</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>RaniKumari</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ranjitharashmi</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Ranjitha BR ranjitha</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>UI Developer &amp; Web D</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>+91 8073936942</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>ranjitharashmi@gmail.com</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>RanjithaBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>RANJITHANAIK</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Ranjitha Naik P</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>+91-9901883708</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>9901883708</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>RANJITHANAIK23@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>RanjithaNaikP</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ravalisottu</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Ravali Sottu</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ravalisottu45@gmail.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>7981616155</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>ravalisottu45@gmail.com</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>RavaliSottu</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>sadineniprasad</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>S PRASAD</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>EMAIL:sadineniprasad</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>9686274167</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>sadineniprasad67@gmail.com</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>SadineniPrasad</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>saikishor</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Saikishor Atmakuri</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Chennai, India (+91)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>9059825020</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>saikishor2604@gmail.com</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Saikishor</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>saisuman</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Ambati Sai suman</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>E-mail: saisuman4334</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>7013829213</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>saisuman4334@gmail.com</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>sai</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>sakshichex</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SAKSHI SINGHAL</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Industry Solution De</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>9194564089</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>sakshichex@gmail.com</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>SAKSHISINGHAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>sunnysan</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Sandeep</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Contact No: 93467227</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>sunnysan2275@gmail.com</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sandeep</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>sanjeevkumarsanju</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Sanjeev Kumar</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>E-mail: sanjeevkumar</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>+918152029810</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>sanjeevkumarsanju6@gmail.com</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>SanjeevKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>srm.sankalp</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SANKALP TRIPATHI Pro</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>years of React JS ex</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>+91 9108287038</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>srm.sankalp@gmail.com</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>SankalpTripathi</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>santhoshshanmugam</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Santhosh Kumar S</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Web Publisher</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>+918050749841</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>santhoshshanmugam71@gmail.com</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>SanthoshKumarS</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>sankumtel</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SANTOSH KUMAR .T</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>E mail:sankumtel@gma</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>+919986259899</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>sankumtel@gmail.com</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>SantoshKumarT</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Saritasp</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sarita Patgar</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>+91 7996748513</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Saritasp204@gmail.com</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sarita</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>satanaik.kamble</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Mobile: +91-78929394</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Satanaik kambleE-mai</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>7892939485</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>satanaik.kamble@gmail.com</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>SatanaikKamble</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>satishs</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Satish Singh Fronten</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Vandana Paradise Key</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>+91 8127069747</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>satish2010s@gmail.com</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>satishsingh</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>shailuhasbi</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Shalini Hasbi</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F u l l s t a c k D </t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>6300427240</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>shailuhasbi@gmail.com</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Shailus</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>shankarsrikanthps</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Shankar S S</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S e n i o r S o f t </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>shankarsrikanthps@gmail.com</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>shankarssuvarnakar</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>sharadrathore</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Sharad Rathore UI/UX</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Bengaluru, India sha</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>9770409863</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>sharadrathore0224@gmail.com</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>SharadRathore</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>shashankadash</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Shashanka Sekhar Das</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>F U L L S TA C K D E</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>9348817334</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>shashankadash344@gmail.com</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>ShashankaSekharDash</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>skothagaanahalli</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Shashidhar KV</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>: 9686043548</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>9686043548</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>skothagaanahalli@gmail.com</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>ShashidharKV</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>shashikantkumar</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>SHASHIKANT GUPTA Cur</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1 Block 182, Madhu </t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>shashikantkumar38@gmail.com</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ShashikantGupta</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>shashivarma.arikolla</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Shashi Varma</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Bangalore, KA, India</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>9959112070</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>shashivarma.arikolla@gmail.com</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ShashivarmaArikolla</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>snageshr</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    </t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S Nagesh            </t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>7989623916</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>snageshr6@gmail.com</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>SNagesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>rsougata</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Name: Sougata Roy</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Mail: rsougata19@gma</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>+919679645591</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>rsougata19@gmail.com</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>SougataRoy</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>soumyadas.</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Soumya Das</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Email: soumyadas.819</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>8762990807</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>soumyadas.8194@gmail.com</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>SoumyaDas</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>srpatra.dev</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SOUMYARANJAN PATRA</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>PH:9692611506</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>9692611506</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>srpatra.dev@gmail.com</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>soumyaranjanpatra</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>rajkumarswasthik</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>RAJKUMAR SARAVANAN T</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Mobile : (+91) 98946</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>9894675259</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>rajkumarswasthik@gmail.com</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>SRajkumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>psreenu</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>RESUME</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SREENIVAS REDDY</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>9885673070</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>psreenu33@gmail.com</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>SreenivasReddy</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>srini.srinivas</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Name : Srinivasa H D</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Email Address : srin</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>9972256939</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>srini.srinivas61@gmail.com</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>SRINIVASAHD</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>sudheer.nannam</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>+91 8179099346</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>sudheer.nannam9@gmail.com</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sudheer</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>kumar.sunil.react</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SunilKumar Mobile:(+</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ReactDeveloper Email</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>7975184379</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>kumar.sunil.react@gmail.com</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>SunilKumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>supriya.rani</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Supriya Rani</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Frontend Developer</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>7903577787</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>supriya.rani2202@gmail.com</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>SupriyaRani</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>surendrakgadwal</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Surendra Kumar Praja</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Bengaluru, karnataka</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>9789051466</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>surendrakgadwal@gmail.com</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>SURENDRAKUMARPRAJAPAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>sushmakulkarni</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>+91 8197900238sushma</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>+91 8197900238</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>+91 8197900238</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>8197900238sushmakulkarni518@gmail.com</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sushmakulkarni</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>kumarisweta</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SWETA KUMARI</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>LinkedIn : https://w</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>+91 7741967941</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>kumarisweta297@gmail.com</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>SwetaKumari</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>tathagat.mohanty</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Tathagat Mohanty tat</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Software Developer (</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>9439844464</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>tathagat.mohanty95@gmail.com</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>TathagatMohanty</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>tusarkantap</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>TUSAR KANTA PANDA</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>UI DEVELOPER</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>8260011026</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>tusarkantap64@gmail.com</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>TusarKantaPanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>mahalaupanita</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Upanita Mahala</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Senior Software Deve</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>+91 8118042124</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>mahalaupanita07@gmail.com</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>UPANITAMAHALA</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>vaibhavk</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>VAIBHAV C ANIL</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Senior Software Engi</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>9567629563</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>vaibhav2k13@gmail.com</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>VaibhavCAnil</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>venkateshvenom</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>B Venkatesh UI Devel</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Professional Experie</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>8197485377</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>venkateshvenom1995@gmail.com</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>VenkateshB</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>vidyashreelikhi</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Vidyashree Contact</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>8088387159</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>vidyashreelikhi@gmail.com</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Vidyashree</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>vijaykturs</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>VIJAY K T</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Mobile No: (+91) 807</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>8073545022</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>vijaykturs@gmail.com</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>VIJAYKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>vijaypal</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>V I J A Y K U M A R</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>WEB DESIGNER(UI &amp; UX</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>7009820784</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>vijaypal6934@gmail.com</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>VIJAYKUMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>mishravikas</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vikas Mishra Email: </t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Phone: 9538487518</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>9538487518</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>mishra7vikas@gmail.com</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>VIKASMISHRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>sw.vikastembhre</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>VIKAS TEMBHRE</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>8904920736</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>sw.vikastembhre@gmail.com</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>VikasTembhre</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>vinodshekha</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>VINOD SHEKHA</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Excel in a dynamic W</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>+91 8095761810</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>vinodshekha2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>VinodShekhaImmediateJoiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>vishad</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Vishad Saxena</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Bangalore/Lucknow, 2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>9336880369</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>vishad1710@gmail.com</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>VishadSaxena</t>
         </is>
       </c>
     </row>
